--- a/DataMap.xlsx
+++ b/DataMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="0" windowWidth="25040" windowHeight="16980" tabRatio="500"/>
+    <workbookView xWindow="-47440" yWindow="11100" windowWidth="25040" windowHeight="16980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="2" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>B1 + B2</t>
-  </si>
-  <si>
     <t>B4</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>B1,B2</t>
   </si>
 </sst>
 </file>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -133,6 +133,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +473,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -481,14 +487,14 @@
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -512,16 +518,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -529,19 +535,23 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
